--- a/tx/data_raw/tx_covid19_20200620.xlsx
+++ b/tx/data_raw/tx_covid19_20200620.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E5FF4C-54FE-4E10-93C3-E3BD52633FD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F279AAC8-F427-4840-9438-E656A16ED197}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="336">
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/19 at 10:45AM CST</t>
+    <t>COVID-19 Cases and Fatalities by County as of 6/20 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/19 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/20 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -842,7 +842,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/19 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/20 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -854,7 +854,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/19 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/20 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -870,7 +870,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/19 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/20 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -891,7 +891,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/19 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/20 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -912,7 +912,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/19 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/20 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -921,7 +921,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/19 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -976,10 +976,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          19,052</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/19 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          19,339</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -991,7 +991,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/19 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1012,16 +1012,25 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/19 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          664</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 6/19 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/19 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          662</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 6/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Number of Antibody Tests Reported (included in total test numbers)</t>
+  </si>
+  <si>
+    <t>Number of Positive Antibody Tests Reported</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/19 at 3:00PM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1038,16 +1047,7 @@
     <t>New Total Tests Reported* (Average of previous 7 days)</t>
   </si>
   <si>
-    <t>Number of Antibody Tests Reported (included in total test numbers)</t>
-  </si>
-  <si>
-    <t>Number of Positive Antibody Tests Reported</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/18 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>06/16/20-TDCJ*</t>
+    <t>06/16/2020-TDCJ*</t>
   </si>
   <si>
     <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
@@ -1090,13 +1090,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.5"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1105,6 +1098,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1142,7 +1142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1180,10 +1180,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB0B7BB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,9 +1216,6 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1231,49 +1237,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B58E1420-9395-4179-937E-272FF6CD991E}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{62C65D8B-FE5D-42DF-8967-23399DD5657B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1420,11 +1429,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1442,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1453,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1464,7 +1473,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -1508,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1519,7 +1528,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1541,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1552,7 +1561,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1574,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1585,10 +1594,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>769</v>
+        <v>818</v>
       </c>
       <c r="C16" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,10 +1605,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>5550</v>
+        <v>5962</v>
       </c>
       <c r="C17" s="4">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1640,10 +1649,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C21" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1651,10 +1660,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1609</v>
+        <v>1669</v>
       </c>
       <c r="C22" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1662,7 +1671,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1095</v>
+        <v>1163</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -1717,7 +1726,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1728,7 +1737,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -1739,7 +1748,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1750,7 +1759,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1772,7 +1781,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1371</v>
+        <v>1454</v>
       </c>
       <c r="C33" s="4">
         <v>48</v>
@@ -1783,7 +1792,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -1827,7 +1836,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1904,7 +1913,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2026</v>
+        <v>2064</v>
       </c>
       <c r="C45" s="4">
         <v>38</v>
@@ -1926,7 +1935,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1937,7 +1946,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1959,7 +1968,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -2003,7 +2012,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C54" s="4">
         <v>5</v>
@@ -2036,7 +2045,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -2058,10 +2067,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>15648</v>
+        <v>16042</v>
       </c>
       <c r="C59" s="4">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2080,7 +2089,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2113,7 +2122,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1980</v>
+        <v>2054</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2179,7 +2188,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
@@ -2201,10 +2210,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>4178</v>
+        <v>4340</v>
       </c>
       <c r="C72" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2256,7 +2265,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2300,7 +2309,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2726</v>
+        <v>2882</v>
       </c>
       <c r="C81" s="4">
         <v>50</v>
@@ -2311,7 +2320,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2333,7 +2342,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2355,7 +2364,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1535</v>
+        <v>1642</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2377,7 +2386,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2410,7 +2419,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2443,7 +2452,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C94" s="4">
         <v>12</v>
@@ -2454,7 +2463,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2465,7 +2474,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -2476,7 +2485,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C97" s="4">
         <v>5</v>
@@ -2531,7 +2540,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2542,10 +2551,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>18552</v>
+        <v>19739</v>
       </c>
       <c r="C103" s="4">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2553,10 +2562,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C104" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2586,7 +2595,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>1448</v>
+        <v>1551</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2608,7 +2617,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
@@ -2619,10 +2628,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>1447</v>
+        <v>1556</v>
       </c>
       <c r="C110" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2630,7 +2639,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2674,7 +2683,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2685,7 +2694,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2707,7 +2716,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2751,7 +2760,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2762,7 +2771,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2784,7 +2793,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1356</v>
+        <v>1388</v>
       </c>
       <c r="C125" s="4">
         <v>32</v>
@@ -2795,7 +2804,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2806,7 +2815,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2828,7 +2837,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2839,7 +2848,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2894,7 +2903,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2927,7 +2936,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
@@ -2938,7 +2947,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2993,7 +3002,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3004,7 +3013,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3015,7 +3024,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -3026,7 +3035,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3037,7 +3046,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3048,7 +3057,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3103,7 +3112,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1136</v>
+        <v>1208</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3125,7 +3134,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3147,7 +3156,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3169,7 +3178,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3180,7 +3189,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -3191,7 +3200,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3202,7 +3211,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C163" s="4">
         <v>5</v>
@@ -3224,7 +3233,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3246,7 +3255,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="C167" s="4">
         <v>13</v>
@@ -3257,7 +3266,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3301,10 +3310,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1484</v>
+        <v>1555</v>
       </c>
       <c r="C172" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3323,7 +3332,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3345,7 +3354,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C176" s="4">
         <v>25</v>
@@ -3356,7 +3365,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C177" s="4">
         <v>4</v>
@@ -3378,7 +3387,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3389,10 +3398,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="C180" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3422,7 +3431,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -3444,7 +3453,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3488,7 +3497,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3499,7 +3508,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -3521,7 +3530,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3532,7 +3541,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3565,7 +3574,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3609,7 +3618,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3642,7 +3651,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3653,7 +3662,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C204" s="4">
         <v>1</v>
@@ -3664,7 +3673,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C205" s="4">
         <v>6</v>
@@ -3708,7 +3717,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -3741,7 +3750,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C212" s="4">
         <v>8</v>
@@ -3763,7 +3772,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3785,7 +3794,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3851,10 +3860,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>8099</v>
+        <v>8331</v>
       </c>
       <c r="C222" s="4">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3862,7 +3871,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3906,7 +3915,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -3917,7 +3926,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3928,7 +3937,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>4991</v>
+        <v>5286</v>
       </c>
       <c r="C229" s="4">
         <v>108</v>
@@ -3939,7 +3948,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3950,7 +3959,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -3983,7 +3992,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -3994,7 +4003,7 @@
         <v>236</v>
       </c>
       <c r="B235" s="4">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C235" s="4">
         <v>0</v>
@@ -4027,7 +4036,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1890</v>
+        <v>1905</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4038,7 +4047,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4049,7 +4058,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4060,7 +4069,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C241" s="4">
         <v>26</v>
@@ -4071,7 +4080,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="C242" s="4">
         <v>22</v>
@@ -4082,7 +4091,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4104,7 +4113,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4126,7 +4135,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4137,7 +4146,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1114</v>
+        <v>1159</v>
       </c>
       <c r="C248" s="4">
         <v>32</v>
@@ -4148,7 +4157,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4181,7 +4190,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4192,7 +4201,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4214,7 +4223,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4236,10 +4245,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>103305</v>
+        <v>107735</v>
       </c>
       <c r="C257" s="4">
-        <v>2140</v>
+        <v>2165</v>
       </c>
     </row>
   </sheetData>
@@ -4265,15 +4274,15 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4290,63 +4299,63 @@
       <c r="A3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="9">
-        <v>9400</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="8">
+        <v>9535</v>
+      </c>
+      <c r="C3" s="24">
         <f>B3/B$6</f>
-        <v>0.49338652110014697</v>
+        <v>0.49304514194115517</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="9">
-        <v>9477</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="8">
+        <v>9626</v>
+      </c>
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.49742809153894602</v>
+        <v>0.49775065928951862</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="9">
-        <v>175</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="8">
+        <v>178</v>
+      </c>
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>9.1853873609069915E-3</v>
+        <v>9.2041987693262314E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="9">
-        <v>19052</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="8">
+        <v>19339</v>
+      </c>
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4373,15 +4382,15 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4398,99 +4407,99 @@
       <c r="A3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="9">
-        <v>580</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="8">
+        <v>583</v>
+      </c>
+      <c r="C3" s="24">
         <f>B3/B$9</f>
-        <v>3.0442998110434601E-2</v>
+        <v>3.0146336418635917E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="9">
-        <v>2263</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="8">
+        <v>2293</v>
+      </c>
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11878018055847155</v>
+        <v>0.11856869538238791</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="9">
-        <v>6613</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="8">
+        <v>6728</v>
+      </c>
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>0.34710266638673104</v>
+        <v>0.3478980298877915</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="9">
-        <v>112</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="8">
+        <v>113</v>
+      </c>
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
-        <v>5.8786479109804741E-3</v>
+        <v>5.8431149490666525E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="9">
-        <v>5183</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="B7" s="8">
+        <v>5248</v>
+      </c>
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
-        <v>0.27204492966617677</v>
+        <v>0.2713687367495734</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="9">
-        <v>4301</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="8">
+        <v>4374</v>
+      </c>
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
-        <v>0.22575057736720555</v>
+        <v>0.2261750866125446</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="9">
-        <v>19052</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="8">
+        <v>19339</v>
+      </c>
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4517,18 +4526,18 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4542,10 +4551,10 @@
       <c r="A3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
@@ -4554,10 +4563,10 @@
       <c r="A4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
@@ -4566,159 +4575,159 @@
       <c r="A5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>3.0120481927710845E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
-        <v>1.6566265060240965E-2</v>
+        <v>1.6616314199395771E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>13</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
-        <v>1.9578313253012049E-2</v>
+        <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>26</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
-        <v>3.9156626506024098E-2</v>
+        <v>3.9274924471299093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>72</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
-        <v>0.10843373493975904</v>
+        <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>60</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="24">
         <f t="shared" si="0"/>
-        <v>9.036144578313253E-2</v>
+        <v>9.0634441087613288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>74</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="24">
         <f t="shared" si="0"/>
-        <v>0.11144578313253012</v>
+        <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>69</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="24">
         <f t="shared" si="0"/>
-        <v>0.10391566265060241</v>
+        <v>0.10422960725075529</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>70</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="24">
         <f t="shared" si="0"/>
-        <v>0.10542168674698796</v>
+        <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>265</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="24">
         <f t="shared" si="0"/>
-        <v>0.3990963855421687</v>
+        <v>0.40030211480362538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <f t="shared" si="0"/>
-        <v>3.0120481927710845E-3</v>
+        <v>3.0211480362537764E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="11">
-        <v>664</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="10">
+        <v>662</v>
+      </c>
+      <c r="C16" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4745,15 +4754,15 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4770,63 +4779,63 @@
       <c r="A3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="11">
-        <v>272</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="10">
+        <v>271</v>
+      </c>
+      <c r="C3" s="24">
         <f>B3/B$6</f>
-        <v>0.40963855421686746</v>
+        <v>0.40936555891238668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="11">
-        <v>364</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="10">
+        <v>363</v>
+      </c>
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.54819277108433739</v>
+        <v>0.54833836858006046</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>28</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>4.2168674698795178E-2</v>
+        <v>4.2296072507552872E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="11">
-        <v>664</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="10">
+        <v>662</v>
+      </c>
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4853,15 +4862,15 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4878,99 +4887,99 @@
       <c r="A3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>13</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <f>B3/B$9</f>
-        <v>1.9578313253012049E-2</v>
+        <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>85</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.12801204819277109</v>
+        <v>0.12839879154078551</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>171</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>0.25753012048192769</v>
+        <v>0.2583081570996979</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
-        <v>7.5301204819277108E-3</v>
+        <v>7.5528700906344415E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>269</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
-        <v>0.40512048192771083</v>
+        <v>0.40634441087613293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="11">
-        <v>121</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="10">
+        <v>119</v>
+      </c>
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
-        <v>0.18222891566265059</v>
+        <v>0.1797583081570997</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="11">
-        <v>664</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="10">
+        <v>662</v>
+      </c>
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4979,45 +4988,45 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6448,7 +6457,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="26" t="s">
         <v>334</v>
       </c>
       <c r="B87" s="4">
@@ -6515,20 +6524,37 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+    <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>44002</v>
+      </c>
+      <c r="B91" s="4">
+        <v>107735</v>
+      </c>
+      <c r="C91" s="4">
+        <v>2165</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4430</v>
+      </c>
+      <c r="E91" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:E93"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6542,7 +6568,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6552,10 +6578,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6566,18 +6592,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>65329</v>
-      </c>
-      <c r="B3" s="8">
-        <v>35836</v>
+      <c r="A3" s="7">
+        <v>67096</v>
+      </c>
+      <c r="B3" s="7">
+        <v>38474</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6591,10 +6617,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
@@ -6607,907 +6633,907 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="E2" s="5" t="s">
         <v>330</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="23">
         <v>0.1056</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="23">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="23">
         <v>8.8909998585200004E-2</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="23">
         <v>0.1094</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="23">
         <v>0.11070000000000001</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="23">
         <v>0.100351636462</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="23">
         <v>0.1055125178708</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="23">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="23">
         <v>0.12479999999999999</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="23">
         <v>0.1386</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="23">
         <v>0.1101</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="23">
         <v>0.1105</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="23">
         <v>0.1188</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="23">
         <v>0.10630000000000001</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="23">
         <v>0.1023</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="23">
         <v>9.35E-2</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="23">
         <v>9.7117268401900006E-2</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="23">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="23">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="23">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="23">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="23">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="23">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="23">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="23">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="23">
         <v>6.10670666381E-2</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="23">
         <v>5.8381327098900003E-2</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="23">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="23">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="23">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="23">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="23">
         <v>5.6754924069199998E-2</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="23">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="23">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="23">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>472782</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>16512</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="23">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>496328</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>17650</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="23">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>506771</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>18926</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="23">
         <v>6.3711443038399998E-2</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>511385</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>26787</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="23">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>556776</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>30655</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="23">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>587313</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>35971</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="23">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>609630</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>36362</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="23">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>638739</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>39732</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="23">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>23708</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>3317</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>27025</v>
       </c>
     </row>
@@ -7515,25 +7541,25 @@
       <c r="A46" s="6">
         <v>43968</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>650355</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>42921</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="23">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>22004</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>3610</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>25614</v>
       </c>
     </row>
@@ -7541,25 +7567,25 @@
       <c r="A47" s="6">
         <v>43969</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>679845</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>43168</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="23">
         <v>4.4720144337000001E-2</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <v>24725</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <v>3463</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <v>28188</v>
       </c>
     </row>
@@ -7567,25 +7593,25 @@
       <c r="A48" s="6">
         <v>43970</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>700146</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>44791</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>26966</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <v>2572</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <v>29538</v>
       </c>
     </row>
@@ -7593,25 +7619,25 @@
       <c r="A49" s="6">
         <v>43971</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>720928</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>49313</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="23">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <v>23450</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <v>2665</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="8">
         <v>26116</v>
       </c>
     </row>
@@ -7619,25 +7645,25 @@
       <c r="A50" s="6">
         <v>43972</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>740181</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>60252</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="23">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>21838</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <v>3469</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <v>25307</v>
       </c>
     </row>
@@ -7645,25 +7671,25 @@
       <c r="A51" s="6">
         <v>43973</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>762706</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>71731</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="23">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <v>21868</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>5053</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="8">
         <v>26921</v>
       </c>
     </row>
@@ -7671,21 +7697,21 @@
       <c r="A52" s="6">
         <v>43974</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8">
         <v>27495</v>
       </c>
     </row>
@@ -7693,25 +7719,25 @@
       <c r="A53" s="6">
         <v>43975</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>805654</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>80700</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="23">
         <v>4.87E-2</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="8">
         <v>22186</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="8">
         <v>5397</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="8">
         <v>27583</v>
       </c>
     </row>
@@ -7719,25 +7745,25 @@
       <c r="A54" s="6">
         <v>43976</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>821233</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>84841</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="23">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>20198</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="8">
         <v>5953</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="8">
         <v>26152</v>
       </c>
     </row>
@@ -7745,25 +7771,25 @@
       <c r="A55" s="6">
         <v>43977</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>855674</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>87565</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="23">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <v>22218</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="8">
         <v>6111</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="8">
         <v>28329</v>
       </c>
     </row>
@@ -7771,25 +7797,25 @@
       <c r="A56" s="6">
         <v>43978</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>873218</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>88643</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="23">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>21756</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="8">
         <v>5619</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="8">
         <v>27374</v>
       </c>
     </row>
@@ -7797,25 +7823,25 @@
       <c r="A57" s="6">
         <v>43979</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>893275</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>96719</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="23">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>21871</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="8">
         <v>5210</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="8">
         <v>27080</v>
       </c>
     </row>
@@ -7823,25 +7849,25 @@
       <c r="A58" s="6">
         <v>43980</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>928517</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>98932</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="23">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>23687</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="8">
         <v>3886</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="8">
         <v>27573</v>
       </c>
     </row>
@@ -7849,21 +7875,21 @@
       <c r="A59" s="6">
         <v>43981</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>951865</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>102928</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8">
         <v>26265</v>
       </c>
     </row>
@@ -7871,25 +7897,25 @@
       <c r="A60" s="6">
         <v>43982</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>970031</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>103460</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="23">
         <v>5.43810873784E-2</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>23482</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="8">
         <v>3251</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="8">
         <v>26734</v>
       </c>
     </row>
@@ -7897,25 +7923,25 @@
       <c r="A61" s="6">
         <v>43983</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>986224</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>107452</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="23">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="8">
         <v>23570</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="8">
         <v>3230</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="8">
         <v>26800</v>
       </c>
     </row>
@@ -7923,25 +7949,25 @@
       <c r="A62" s="6">
         <v>43984</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>1006768</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>110506</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="23">
         <v>6.6236912120931343E-2</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>21585</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="8">
         <v>3277</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="8">
         <v>24862</v>
       </c>
     </row>
@@ -7949,25 +7975,25 @@
       <c r="A63" s="6">
         <v>43985</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>1038555</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>112313</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="23">
         <v>6.2599418158065037E-2</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <v>23620</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="8">
         <v>3381</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="8">
         <v>27001</v>
       </c>
     </row>
@@ -7975,25 +8001,25 @@
       <c r="A64" s="6">
         <v>43986</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>1061576</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>113372</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="23">
         <v>6.0272963321667726E-2</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>24043</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="8">
         <v>2379</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="8">
         <v>26422</v>
       </c>
     </row>
@@ -8001,25 +8027,25 @@
       <c r="A65" s="6">
         <v>43987</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>1093277</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>115910</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="23">
         <v>6.4378489924739019E-2</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="8">
         <v>23537</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="8">
         <v>2425</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="8">
         <v>25963</v>
       </c>
     </row>
@@ -8027,25 +8053,25 @@
       <c r="A66" s="6">
         <v>43988</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>1092012</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>126943</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="23">
         <v>8.00231185826311E-2</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <v>20021</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="8">
         <v>3431</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="8">
         <v>23452</v>
       </c>
     </row>
@@ -8053,25 +8079,25 @@
       <c r="A67" s="6">
         <v>43989</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>1120316</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>135583</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="23">
         <v>7.1138170808796614E-2</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="8">
         <v>21469</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="8">
         <v>4589</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="8">
         <v>26058</v>
       </c>
     </row>
@@ -8079,25 +8105,25 @@
       <c r="A68" s="6">
         <v>43990</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>1147355</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>138784</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="23">
         <v>6.6629016142145212E-2</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <v>23019</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="8">
         <v>4476</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="8">
         <v>27495</v>
       </c>
     </row>
@@ -8105,25 +8131,25 @@
       <c r="A69" s="6">
         <v>43991</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>1161087</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>140962</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="23">
         <v>6.9239691807230483E-2</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="8">
         <v>22046</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="8">
         <v>4351</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="8">
         <v>26396</v>
       </c>
     </row>
@@ -8131,25 +8157,25 @@
       <c r="A70" s="6">
         <v>43992</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>1206320</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>142573</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="23">
         <v>6.8464816856912941E-2</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="8">
         <v>23966</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="8">
         <v>4323</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="8">
         <v>28289</v>
       </c>
     </row>
@@ -8157,25 +8183,25 @@
       <c r="A71" s="6">
         <v>43993</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>1226957</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>143174</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="23">
         <v>7.0522006760147776E-2</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="8">
         <v>23626</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="8">
         <v>4257</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="8">
         <v>27883</v>
       </c>
     </row>
@@ -8183,25 +8209,25 @@
       <c r="A72" s="6">
         <v>43994</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>1260319</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>144050</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="23">
         <v>7.2239317057985419E-2</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="8">
         <v>23863</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="8">
         <v>4020</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="8">
         <v>27883</v>
       </c>
     </row>
@@ -8209,25 +8235,25 @@
       <c r="A73" s="6">
         <v>43995</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="8">
         <v>1295983</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>146967</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="23">
         <v>6.1077310009756289E-2</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="8">
         <v>29139</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="8">
         <v>2861</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="8">
         <v>31999</v>
       </c>
     </row>
@@ -8235,25 +8261,25 @@
       <c r="A74" s="6">
         <v>43996</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>1314761</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>149090</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="23">
         <v>6.6219239373601788E-2</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="8">
         <v>27778</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="8">
         <v>1930</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="8">
         <v>29707</v>
       </c>
     </row>
@@ -8261,25 +8287,25 @@
       <c r="A75" s="6">
         <v>43997</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="8">
         <v>1348442</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>150573</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="23">
         <v>6.7095336844251494E-2</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="8">
         <v>28727</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="8">
         <v>1684</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="8">
         <v>30411</v>
       </c>
     </row>
@@ -8287,25 +8313,25 @@
       <c r="A76" s="6">
         <v>43998</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>1369638</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>152796</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="23">
         <v>6.9417073042085622E-2</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="8">
         <v>29793</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="8">
         <v>1691</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="8">
         <v>31484</v>
       </c>
     </row>
@@ -8313,25 +8339,25 @@
       <c r="A77" s="6">
         <v>43999</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="8">
         <v>1407741</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>152796</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="23">
         <v>7.4977286380268196E-2</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="8">
         <v>28774</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="8">
         <v>1460</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="8">
         <v>30235</v>
       </c>
     </row>
@@ -8339,25 +8365,25 @@
       <c r="A78" s="6">
         <v>44000</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>1423914</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>153011</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="8">
         <v>1576925</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="23">
         <v>8.5257188117203245E-2</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <v>28137</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="8">
         <v>1405</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="8">
         <v>29542</v>
       </c>
     </row>
@@ -8365,31 +8391,57 @@
       <c r="A79" s="6">
         <v>44001</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8">
+        <v>1463398</v>
+      </c>
+      <c r="C79" s="8">
+        <v>159453</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1622851</v>
+      </c>
+      <c r="E79" s="23">
+        <v>8.9369161754785084E-2</v>
+      </c>
+      <c r="F79" s="8">
+        <v>29011</v>
+      </c>
+      <c r="G79" s="8">
+        <v>2200</v>
+      </c>
+      <c r="H79" s="8">
+        <v>31212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>44002</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D79" s="9">
-        <v>1622851</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="81" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="D80" s="8">
+        <v>1690124</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="82" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8414,10 +8466,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8431,31 +8483,31 @@
       <c r="A3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="8">
-        <v>69042</v>
+      <c r="B3" s="7">
+        <v>71577</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="8">
-        <v>1553809</v>
+      <c r="B4" s="7">
+        <v>1618547</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="8">
-        <v>1622851</v>
+      <c r="B5" s="7">
+        <v>1690124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8468,7 +8520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22B7E61-E2D8-4C40-892C-23F4CCC249D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF4A43-B464-473C-B108-8DA75E847B59}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8477,46 +8529,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="20"/>
+    <col min="1" max="1" width="55.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="24">
-        <v>153011</v>
+      <c r="A3" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="20">
+        <v>159453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" s="24">
-        <v>6262</v>
+      <c r="A4" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="20">
+        <v>6431</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8545,10 +8597,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8562,47 +8614,47 @@
       <c r="A3" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="8">
-        <v>3148</v>
+      <c r="B3" s="7">
+        <v>3247</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="8">
-        <v>59823</v>
+      <c r="B4" s="7">
+        <v>57994</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="8">
-        <v>13591</v>
+      <c r="B5" s="7">
+        <v>13701</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="8">
-        <v>1443</v>
+      <c r="B6" s="7">
+        <v>1449</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B7" s="8">
-        <v>5835</v>
+      <c r="B7" s="7">
+        <v>5924</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8616,7 +8668,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -8632,11 +8684,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8656,7 +8708,7 @@
       <c r="B3" s="6">
         <v>43925</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>827</v>
       </c>
     </row>
@@ -8667,7 +8719,7 @@
       <c r="B4" s="6">
         <v>43926</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1132</v>
       </c>
     </row>
@@ -8678,7 +8730,7 @@
       <c r="B5" s="6">
         <v>43927</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1153</v>
       </c>
     </row>
@@ -8689,7 +8741,7 @@
       <c r="B6" s="6">
         <v>43928</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1252</v>
       </c>
     </row>
@@ -8700,7 +8752,7 @@
       <c r="B7" s="6">
         <v>43929</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1491</v>
       </c>
     </row>
@@ -8711,7 +8763,7 @@
       <c r="B8" s="6">
         <v>43930</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1439</v>
       </c>
     </row>
@@ -8722,7 +8774,7 @@
       <c r="B9" s="6">
         <v>43931</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1532</v>
       </c>
     </row>
@@ -8733,7 +8785,7 @@
       <c r="B10" s="6">
         <v>43932</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1514</v>
       </c>
     </row>
@@ -8744,7 +8796,7 @@
       <c r="B11" s="6">
         <v>43933</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1338</v>
       </c>
     </row>
@@ -8755,7 +8807,7 @@
       <c r="B12" s="6">
         <v>43934</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1176</v>
       </c>
     </row>
@@ -8766,7 +8818,7 @@
       <c r="B13" s="6">
         <v>43935</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>1409</v>
       </c>
     </row>
@@ -8777,7 +8829,7 @@
       <c r="B14" s="6">
         <v>43936</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>1538</v>
       </c>
     </row>
@@ -8788,7 +8840,7 @@
       <c r="B15" s="6">
         <v>43937</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>1459</v>
       </c>
     </row>
@@ -8799,7 +8851,7 @@
       <c r="B16" s="6">
         <v>43938</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>1522</v>
       </c>
     </row>
@@ -8810,7 +8862,7 @@
       <c r="B17" s="6">
         <v>43939</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>1321</v>
       </c>
     </row>
@@ -8821,7 +8873,7 @@
       <c r="B18" s="6">
         <v>43940</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>1471</v>
       </c>
     </row>
@@ -8832,7 +8884,7 @@
       <c r="B19" s="6">
         <v>43941</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1411</v>
       </c>
     </row>
@@ -8843,7 +8895,7 @@
       <c r="B20" s="6">
         <v>43942</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1419</v>
       </c>
     </row>
@@ -8854,7 +8906,7 @@
       <c r="B21" s="6">
         <v>43943</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>1678</v>
       </c>
     </row>
@@ -8865,7 +8917,7 @@
       <c r="B22" s="6">
         <v>43944</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>1649</v>
       </c>
     </row>
@@ -8876,7 +8928,7 @@
       <c r="B23" s="6">
         <v>43945</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>1674</v>
       </c>
     </row>
@@ -8887,7 +8939,7 @@
       <c r="B24" s="6">
         <v>43946</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>1597</v>
       </c>
     </row>
@@ -8898,7 +8950,7 @@
       <c r="B25" s="6">
         <v>43947</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>1542</v>
       </c>
     </row>
@@ -8909,7 +8961,7 @@
       <c r="B26" s="6">
         <v>43948</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>1563</v>
       </c>
     </row>
@@ -8920,7 +8972,7 @@
       <c r="B27" s="6">
         <v>43949</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>1682</v>
       </c>
     </row>
@@ -8931,7 +8983,7 @@
       <c r="B28" s="6">
         <v>43950</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>1702</v>
       </c>
     </row>
@@ -8942,7 +8994,7 @@
       <c r="B29" s="6">
         <v>43951</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>1686</v>
       </c>
     </row>
@@ -8953,7 +9005,7 @@
       <c r="B30" s="6">
         <v>43952</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>1778</v>
       </c>
     </row>
@@ -8964,7 +9016,7 @@
       <c r="B31" s="6">
         <v>43953</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>1725</v>
       </c>
     </row>
@@ -8975,7 +9027,7 @@
       <c r="B32" s="6">
         <v>43954</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>1540</v>
       </c>
     </row>
@@ -8986,7 +9038,7 @@
       <c r="B33" s="6">
         <v>43955</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>1533</v>
       </c>
     </row>
@@ -8997,7 +9049,7 @@
       <c r="B34" s="6">
         <v>43956</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>1888</v>
       </c>
     </row>
@@ -9008,7 +9060,7 @@
       <c r="B35" s="6">
         <v>43957</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>1812</v>
       </c>
     </row>
@@ -9019,7 +9071,7 @@
       <c r="B36" s="6">
         <v>43958</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>1750</v>
       </c>
     </row>
@@ -9030,7 +9082,7 @@
       <c r="B37" s="6">
         <v>43959</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>1734</v>
       </c>
     </row>
@@ -9041,7 +9093,7 @@
       <c r="B38" s="6">
         <v>43960</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>1735</v>
       </c>
     </row>
@@ -9052,7 +9104,7 @@
       <c r="B39" s="6">
         <v>43961</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>1626</v>
       </c>
     </row>
@@ -9063,7 +9115,7 @@
       <c r="B40" s="6">
         <v>43962</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>1525</v>
       </c>
     </row>
@@ -9074,7 +9126,7 @@
       <c r="B41" s="6">
         <v>43963</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>1725</v>
       </c>
     </row>
@@ -9085,7 +9137,7 @@
       <c r="B42" s="6">
         <v>43964</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>1676</v>
       </c>
     </row>
@@ -9096,7 +9148,7 @@
       <c r="B43" s="6">
         <v>43965</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>1648</v>
       </c>
     </row>
@@ -9107,7 +9159,7 @@
       <c r="B44" s="6">
         <v>43966</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>1716</v>
       </c>
     </row>
@@ -9118,7 +9170,7 @@
       <c r="B45" s="6">
         <v>43967</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>1791</v>
       </c>
     </row>
@@ -9129,7 +9181,7 @@
       <c r="B46" s="6">
         <v>43968</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>1512</v>
       </c>
     </row>
@@ -9140,7 +9192,7 @@
       <c r="B47" s="6">
         <v>43969</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>1551</v>
       </c>
     </row>
@@ -9151,7 +9203,7 @@
       <c r="B48" s="6">
         <v>43970</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>1732</v>
       </c>
     </row>
@@ -9162,7 +9214,7 @@
       <c r="B49" s="6">
         <v>43971</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>1791</v>
       </c>
     </row>
@@ -9173,7 +9225,7 @@
       <c r="B50" s="6">
         <v>43972</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>1680</v>
       </c>
     </row>
@@ -9184,7 +9236,7 @@
       <c r="B51" s="6">
         <v>43973</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>1578</v>
       </c>
     </row>
@@ -9195,7 +9247,7 @@
       <c r="B52" s="6">
         <v>43974</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>1688</v>
       </c>
     </row>
@@ -9206,7 +9258,7 @@
       <c r="B53" s="6">
         <v>43975</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>1572</v>
       </c>
     </row>
@@ -9217,7 +9269,7 @@
       <c r="B54" s="6">
         <v>43976</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>1511</v>
       </c>
     </row>
@@ -9228,7 +9280,7 @@
       <c r="B55" s="6">
         <v>43977</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>1534</v>
       </c>
     </row>
@@ -9239,7 +9291,7 @@
       <c r="B56" s="6">
         <v>43978</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>1645</v>
       </c>
     </row>
@@ -9250,7 +9302,7 @@
       <c r="B57" s="6">
         <v>43979</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>1692</v>
       </c>
     </row>
@@ -9261,7 +9313,7 @@
       <c r="B58" s="6">
         <v>43980</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>1701</v>
       </c>
     </row>
@@ -9272,7 +9324,7 @@
       <c r="B59" s="6">
         <v>43981</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>1752</v>
       </c>
     </row>
@@ -9283,7 +9335,7 @@
       <c r="B60" s="6">
         <v>43982</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>1684</v>
       </c>
     </row>
@@ -9294,7 +9346,7 @@
       <c r="B61" s="6">
         <v>43983</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>1756</v>
       </c>
     </row>
@@ -9305,7 +9357,7 @@
       <c r="B62" s="6">
         <v>43984</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>1773</v>
       </c>
     </row>
@@ -9316,7 +9368,7 @@
       <c r="B63" s="6">
         <v>43985</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>1799</v>
       </c>
     </row>
@@ -9327,7 +9379,7 @@
       <c r="B64" s="6">
         <v>43986</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>1796</v>
       </c>
     </row>
@@ -9338,7 +9390,7 @@
       <c r="B65" s="6">
         <v>43987</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>1855</v>
       </c>
     </row>
@@ -9349,7 +9401,7 @@
       <c r="B66" s="6">
         <v>43988</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>1822</v>
       </c>
     </row>
@@ -9360,7 +9412,7 @@
       <c r="B67" s="6">
         <v>43989</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>1878</v>
       </c>
     </row>
@@ -9371,7 +9423,7 @@
       <c r="B68" s="6">
         <v>43990</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>1935</v>
       </c>
     </row>
@@ -9382,7 +9434,7 @@
       <c r="B69" s="6">
         <v>43991</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>2056</v>
       </c>
     </row>
@@ -9393,7 +9445,7 @@
       <c r="B70" s="6">
         <v>43992</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>2153</v>
       </c>
     </row>
@@ -9404,7 +9456,7 @@
       <c r="B71" s="6">
         <v>43993</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>2008</v>
       </c>
     </row>
@@ -9415,7 +9467,7 @@
       <c r="B72" s="6">
         <v>43994</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>2166</v>
       </c>
     </row>
@@ -9426,7 +9478,7 @@
       <c r="B73" s="6">
         <v>43995</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>2242</v>
       </c>
     </row>
@@ -9437,7 +9489,7 @@
       <c r="B74" s="6">
         <v>43996</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <v>2287</v>
       </c>
     </row>
@@ -9448,7 +9500,7 @@
       <c r="B75" s="6">
         <v>43997</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>2326</v>
       </c>
     </row>
@@ -9459,7 +9511,7 @@
       <c r="B76" s="6">
         <v>43998</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <v>2518</v>
       </c>
     </row>
@@ -9470,7 +9522,7 @@
       <c r="B77" s="6">
         <v>43999</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <v>2793</v>
       </c>
     </row>
@@ -9481,7 +9533,7 @@
       <c r="B78" s="6">
         <v>44000</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <v>2947</v>
       </c>
     </row>
@@ -9492,21 +9544,32 @@
       <c r="B79" s="6">
         <v>44001</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7">
         <v>3148</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" s="6">
+        <v>44002</v>
+      </c>
+      <c r="C80" s="7">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9527,18 +9590,18 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -9552,183 +9615,183 @@
       <c r="A3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>73</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <f>B3/B$16</f>
-        <v>3.8316187276926307E-3</v>
+        <v>3.774755675060758E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>304</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.5956330044089858E-2</v>
+        <v>1.5719530482444802E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="9">
-        <v>790</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="8">
+        <v>802</v>
+      </c>
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>4.146546294352299E-2</v>
+        <v>4.1470603443818192E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="9">
-        <v>3117</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="8">
+        <v>3173</v>
+      </c>
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
-        <v>0.16360487087969766</v>
+        <v>0.16407259941051761</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="9">
-        <v>3510</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="B7" s="8">
+        <v>3553</v>
+      </c>
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
-        <v>0.18423262649590594</v>
+        <v>0.18372201251357362</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="9">
-        <v>3461</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="8">
+        <v>3518</v>
+      </c>
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
-        <v>0.18166071803485198</v>
+        <v>0.18191219814881845</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="9">
-        <v>3344</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="8">
+        <v>3397</v>
+      </c>
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
-        <v>0.17551963048498845</v>
+        <v>0.17565541134495061</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="9">
-        <v>1343</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="8">
+        <v>1369</v>
+      </c>
+      <c r="C10" s="24">
         <f t="shared" si="0"/>
-        <v>7.0491287003989087E-2</v>
+        <v>7.0789596152851755E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="9">
-        <v>1015</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="B11" s="8">
+        <v>1022</v>
+      </c>
+      <c r="C11" s="24">
         <f t="shared" si="0"/>
-        <v>5.3275246693260551E-2</v>
+        <v>5.2846579450850611E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="9">
-        <v>646</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="B12" s="8">
+        <v>652</v>
+      </c>
+      <c r="C12" s="24">
         <f t="shared" si="0"/>
-        <v>3.3907201343690949E-2</v>
+        <v>3.3714256166296086E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="9">
-        <v>473</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="B13" s="8">
+        <v>485</v>
+      </c>
+      <c r="C13" s="24">
         <f t="shared" si="0"/>
-        <v>2.4826789838337183E-2</v>
+        <v>2.5078856197321475E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="9">
-        <v>962</v>
-      </c>
-      <c r="C14" s="27">
+      <c r="B14" s="8">
+        <v>977</v>
+      </c>
+      <c r="C14" s="24">
         <f t="shared" si="0"/>
-        <v>5.049338652110015E-2</v>
+        <v>5.0519675267593982E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>14</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <f t="shared" si="0"/>
-        <v>7.3483098887255926E-4</v>
+        <v>7.2392574590206314E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="9">
-        <v>19052</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="8">
+        <v>19339</v>
+      </c>
+      <c r="C16" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9737,6 +9800,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>